--- a/team_specific_matrix/Cairn_B.xlsx
+++ b/team_specific_matrix/Cairn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R6">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09090909090909091</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.09090909090909091</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1818181818181818</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R8">
-        <v>0.09090909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="S8">
-        <v>0.5454545454545454</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02857142857142857</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08571428571428572</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="F10">
-        <v>0.02857142857142857</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1571428571428571</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.05714285714285714</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2428571428571429</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="R10">
-        <v>0.1</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S10">
-        <v>0.3</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07142857142857142</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J15">
         <v>0.5</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.125</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2857142857142857</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.05</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="I17">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J17">
-        <v>0.75</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02631578947368421</v>
+        <v>0.04</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2105263157894737</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="I19">
-        <v>0.02631578947368421</v>
+        <v>0.04</v>
       </c>
       <c r="J19">
-        <v>0.5789473684210527</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.131578947368421</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.02631578947368421</v>
+        <v>0.05333333333333334</v>
       </c>
     </row>
   </sheetData>
